--- a/data4regresssion/regression_data.xlsx
+++ b/data4regresssion/regression_data.xlsx
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="n">
         <v>0.0007778679582869964</v>
@@ -2899,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" t="n">
         <v>0.06804582190416802</v>
@@ -3047,7 +3047,7 @@
         <v>4</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
@@ -4949,7 +4949,7 @@
         <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31" t="n">
         <v>0.4512595369524732</v>
@@ -5657,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36" t="n">
         <v>0.1602858348300085</v>
@@ -5899,7 +5899,7 @@
         <v>4</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
@@ -6309,7 +6309,7 @@
         <v>3</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
@@ -7745,7 +7745,7 @@
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
@@ -7883,7 +7883,7 @@
         <v>4</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
@@ -8021,7 +8021,7 @@
         <v>4</v>
       </c>
       <c r="Z54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA54" t="n">
         <v>0.0008659231961310936</v>
@@ -8891,7 +8891,7 @@
         <v>4</v>
       </c>
       <c r="Z60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA60" t="n">
         <v>0.1019308471466646</v>
@@ -9441,7 +9441,7 @@
         <v>4</v>
       </c>
       <c r="Z65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA65" t="n">
         <v>0.02880872854307591</v>
@@ -9727,7 +9727,7 @@
         <v>4</v>
       </c>
       <c r="Z67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA67" t="n">
         <v>0.2577705548449842</v>
@@ -11341,7 +11341,7 @@
         <v>4</v>
       </c>
       <c r="Z79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
@@ -11911,7 +11911,7 @@
         <v>4</v>
       </c>
       <c r="Z83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA83" t="n">
         <v>0.0935722184696816</v>
@@ -12057,7 +12057,7 @@
         <v>4</v>
       </c>
       <c r="Z84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
@@ -13313,7 +13313,7 @@
         <v>4</v>
       </c>
       <c r="Z93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA93" t="n">
         <v>0.03710415985770191</v>
@@ -14053,7 +14053,7 @@
         <v>4</v>
       </c>
       <c r="Z98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="inlineStr"/>
@@ -15417,7 +15417,7 @@
       <c r="X108" t="inlineStr"/>
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA108" t="n">
         <v>0.6219778970755448</v>
@@ -18635,7 +18635,7 @@
         <v>4</v>
       </c>
       <c r="Z131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA131" t="n">
         <v>0.158196596337798</v>
@@ -19001,7 +19001,7 @@
         <v>4</v>
       </c>
       <c r="Z134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA134" t="n">
         <v>0.0006688256723845481</v>
@@ -19869,7 +19869,7 @@
         <v>4</v>
       </c>
       <c r="Z141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA141" t="n">
         <v>0.03485956958557916</v>
@@ -20675,7 +20675,7 @@
         <v>4</v>
       </c>
       <c r="Z147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA147" t="n">
         <v>0.2911136851352935</v>
